--- a/public/cohort/fileExcel/xlsxUIT/WB PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/WB PTA en onderwijsprogramma.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -266,15 +266,9 @@
     <t>Hoofdstuk 5: Afstanden en hoeken. Hoofdstuk 7: Lijnen en afstanden</t>
   </si>
   <si>
-    <t>A1, A2, A3, C1, C2</t>
-  </si>
-  <si>
     <t>Hoofdstuk 3: Machtsfuncties. Hoofdstuk 4: ExponentiÃ«le functies</t>
   </si>
   <si>
-    <t>A1, A2, A3, B1, B2</t>
-  </si>
-  <si>
     <t>Hoofsdtuk 6: Afgeleide functies + Hoofdstuk 8: Periodieke functies</t>
   </si>
   <si>
@@ -284,15 +278,9 @@
     <t>Moderne Wiskunde 5 havo B, 11e editie Hoofdstuk 1: Logaritmische functies ; Hoofdstuk 2: Functies bewerken Vaardigheden, uitgedeelde stencils Details: zie studiewijzer</t>
   </si>
   <si>
-    <t>A1, A2, A3, rekenen</t>
-  </si>
-  <si>
     <t>Moderne Wiskunde 5 havo B, 11e editie Hoofdstuk 3: Goniometrische functies  Hoofdstuk 4: DifferentiÃ«ren Vaardigheden, uitgedeelde stencils Details: zie studiewijzer</t>
   </si>
   <si>
-    <t>A1, A2, A3, D1, D2, D3, D4, rekenen</t>
-  </si>
-  <si>
     <t>Moderne Wiskunde 5 havo B, 11e editie Hoofdstuk 5: Cirkels  Hoofdstuk 6: Verbanden Vaardigheden, uitgedeelde stencils Details: zie studiewijzer</t>
   </si>
   <si>
@@ -326,9 +314,6 @@
     <t>Keuzeonderwerp</t>
   </si>
   <si>
-    <t>A1, A2, A3, F</t>
-  </si>
-  <si>
     <t xml:space="preserve">Moderne wiskunde 11e editie, wiskunde B, deel vwo 5 H3. Kettingregel. H4. Integreren. Vaardigheden </t>
   </si>
   <si>
@@ -338,9 +323,6 @@
     <t>Moderne wiskunde 11e editie, wiskunde B, deel vwo 5 H5. Cirkels. H7. Meetkunde: rekenen of beredeneren. Vaardigheden</t>
   </si>
   <si>
-    <t>A1, A2, A3, E1</t>
-  </si>
-  <si>
     <t>Moderne wiskunde 11e editie, wiskunde B, deel vwo 5 H6. Product-en quotiÃ«ntfuncties. H8. Goniometrische functies. Vaardigheden</t>
   </si>
   <si>
@@ -348,9 +330,6 @@
   </si>
   <si>
     <t>Moderne wiskunde 11e editie, wiskunde B, deel vwo 6 H3. Bewegingsvergelijkingen. H6. Afsluiting meetkunde. Vaardigheden</t>
-  </si>
-  <si>
-    <t>A1, A2, A3, E1, rekenen</t>
   </si>
   <si>
     <t>Moderne wiskunde 11e editie, wiskunde B, deel vwo 6 H4. Goniometrische functies. H5. Functies onderzoeken. Vaardigheden</t>
@@ -1370,7 +1349,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1378,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I6" s="27">
         <v>1</v>
@@ -1397,9 +1376,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32">
-        <v>0</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -1414,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I7" s="27">
         <v>2</v>
@@ -1433,9 +1410,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32">
-        <v>0</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -1450,7 +1425,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I8" s="27">
         <v>3</v>
@@ -1469,9 +1444,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32">
-        <v>0</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -1487,7 +1460,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I9" s="27">
         <v>3</v>
@@ -1506,9 +1479,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32">
-        <v>0</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -1516,7 +1487,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633321759</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1524,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I10" s="27">
         <v>1</v>
@@ -1543,9 +1514,7 @@
       <c r="O10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="32">
-        <v>0</v>
-      </c>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -1561,7 +1530,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I11" s="27">
         <v>2</v>
@@ -1580,9 +1549,7 @@
       <c r="O11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="32">
-        <v>0</v>
-      </c>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -1625,7 +1592,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -2284,7 +2251,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2398,7 +2365,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633321759</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2553,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I18" s="27">
         <v>2</v>
@@ -2572,9 +2539,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32">
-        <v>0</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -2583,7 +2548,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I19" s="27">
         <v>1</v>
@@ -2602,9 +2567,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>99</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -2613,7 +2576,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I20" s="27">
         <v>2</v>
@@ -2632,9 +2595,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32">
-        <v>0</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -2643,7 +2604,7 @@
         <v>2</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I21" s="27">
         <v>1</v>
@@ -2662,9 +2623,7 @@
       <c r="O21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="32" t="s">
-        <v>99</v>
-      </c>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
@@ -2673,7 +2632,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I22" s="27">
         <v>2</v>
@@ -2694,9 +2653,7 @@
       <c r="O22" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P22" s="32" t="s">
-        <v>103</v>
-      </c>
+      <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
       <c r="D23" s="2"/>
@@ -2705,7 +2662,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I23" s="27">
         <v>2</v>
@@ -2724,9 +2681,7 @@
       <c r="O23" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P23" s="32">
-        <v>0</v>
-      </c>
+      <c r="P23" s="32"/>
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="9" t="s">
@@ -2746,7 +2701,7 @@
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
       <c r="G26" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
@@ -3200,7 +3155,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3314,7 +3269,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633321759</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3674,7 +3629,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
@@ -3691,9 +3646,7 @@
       <c r="O30" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P30" s="32" t="s">
-        <v>85</v>
-      </c>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2"/>
@@ -3702,7 +3655,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
@@ -3719,9 +3672,7 @@
       <c r="O31" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P31" s="32" t="s">
-        <v>107</v>
-      </c>
+      <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2"/>
@@ -3730,7 +3681,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
@@ -3747,9 +3698,7 @@
       <c r="O32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P32" s="32" t="s">
-        <v>85</v>
-      </c>
+      <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
@@ -3835,7 +3784,7 @@
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
       <c r="G38" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
@@ -4188,7 +4137,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633321759</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5143,7 +5092,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633321759</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5959,7 +5908,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633321759</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6775,7 +6724,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633321759</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7514,9 +7463,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32">
-        <v>0</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -7550,9 +7497,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32">
-        <v>0</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -7586,9 +7531,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32">
-        <v>0</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -7625,9 +7568,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32" t="s">
-        <v>79</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -7635,7 +7576,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633321759</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7643,7 +7584,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I10" s="27">
         <v>3</v>
@@ -7664,9 +7605,7 @@
       <c r="O10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="32" t="s">
-        <v>81</v>
-      </c>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -7682,7 +7621,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I11" s="27">
         <v>3</v>
@@ -7701,9 +7640,7 @@
       <c r="O11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="32">
-        <v>0</v>
-      </c>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -7746,7 +7683,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -8519,7 +8456,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633321759</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8674,7 +8611,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
@@ -8693,9 +8630,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32" t="s">
-        <v>85</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -8704,7 +8639,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
@@ -8723,9 +8658,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>87</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -8734,7 +8667,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
@@ -8753,9 +8686,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32" t="s">
-        <v>85</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -8764,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I21" s="27"/>
       <c r="J21" s="29">
@@ -8779,9 +8710,7 @@
       <c r="O21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="32">
-        <v>0</v>
-      </c>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
@@ -8790,7 +8719,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I22" s="27"/>
       <c r="J22" s="29">
@@ -8805,9 +8734,7 @@
       <c r="O22" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P22" s="32">
-        <v>0</v>
-      </c>
+      <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
       <c r="D23" s="2"/>
@@ -8849,7 +8776,7 @@
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
       <c r="G26" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
@@ -9407,7 +9334,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633321759</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/WB PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/WB PTA en onderwijsprogramma.xlsx
@@ -266,7 +266,7 @@
     <t>Hoofdstuk 5: Afstanden en hoeken. Hoofdstuk 7: Lijnen en afstanden</t>
   </si>
   <si>
-    <t>Hoofdstuk 3: Machtsfuncties. Hoofdstuk 4: ExponentiÃ«le functies</t>
+    <t>Hoofdstuk 3: Machtsfuncties. Hoofdstuk 4: Exponentiële functies</t>
   </si>
   <si>
     <t>Hoofsdtuk 6: Afgeleide functies + Hoofdstuk 8: Periodieke functies</t>
@@ -278,7 +278,7 @@
     <t>Moderne Wiskunde 5 havo B, 11e editie Hoofdstuk 1: Logaritmische functies ; Hoofdstuk 2: Functies bewerken Vaardigheden, uitgedeelde stencils Details: zie studiewijzer</t>
   </si>
   <si>
-    <t>Moderne Wiskunde 5 havo B, 11e editie Hoofdstuk 3: Goniometrische functies  Hoofdstuk 4: DifferentiÃ«ren Vaardigheden, uitgedeelde stencils Details: zie studiewijzer</t>
+    <t>Moderne Wiskunde 5 havo B, 11e editie Hoofdstuk 3: Goniometrische functies  Hoofdstuk 4: Differentiëren Vaardigheden, uitgedeelde stencils Details: zie studiewijzer</t>
   </si>
   <si>
     <t>Moderne Wiskunde 5 havo B, 11e editie Hoofdstuk 5: Cirkels  Hoofdstuk 6: Verbanden Vaardigheden, uitgedeelde stencils Details: zie studiewijzer</t>
@@ -299,7 +299,7 @@
     <t>H5 Lijnen H8 Vectoren Vaardigheden</t>
   </si>
   <si>
-    <t>H3 Machtsfuncties en H4 ExponentiÃ¨le functies Vaardigheden</t>
+    <t>H3 Machtsfuncties en H4 Exponentièle functies Vaardigheden</t>
   </si>
   <si>
     <t>H6 Afgeleide functies Vaardigheden</t>
@@ -323,10 +323,10 @@
     <t>Moderne wiskunde 11e editie, wiskunde B, deel vwo 5 H5. Cirkels. H7. Meetkunde: rekenen of beredeneren. Vaardigheden</t>
   </si>
   <si>
-    <t>Moderne wiskunde 11e editie, wiskunde B, deel vwo 5 H6. Product-en quotiÃ«ntfuncties. H8. Goniometrische functies. Vaardigheden</t>
-  </si>
-  <si>
-    <t>Moderne wiskunde 11e editie, wiskunde B, deel vwo 6 H1. ExponentiÃ«le en logaritmische functies. H2. Toepassingen van integreren. Vaardigheden</t>
+    <t>Moderne wiskunde 11e editie, wiskunde B, deel vwo 5 H6. Product-en quotiëntfuncties. H8. Goniometrische functies. Vaardigheden</t>
+  </si>
+  <si>
+    <t>Moderne wiskunde 11e editie, wiskunde B, deel vwo 6 H1. Exponentiële en logaritmische functies. H2. Toepassingen van integreren. Vaardigheden</t>
   </si>
   <si>
     <t>Moderne wiskunde 11e editie, wiskunde B, deel vwo 6 H3. Bewegingsvergelijkingen. H6. Afsluiting meetkunde. Vaardigheden</t>
@@ -1351,7 +1351,9 @@
       <c r="B6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>370</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -1385,7 +1387,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>371</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>1</v>
@@ -1419,7 +1423,9 @@
       <c r="B8" s="2">
         <v>112</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>372</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>2</v>
@@ -1454,7 +1460,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>373</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>3</v>
@@ -1487,9 +1495,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445717593</v>
+      </c>
+      <c r="D10" s="2">
+        <v>374</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>4</v>
@@ -1524,7 +1534,9 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>375</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="G11" s="27">
         <v>4</v>
@@ -1571,7 +1583,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>277</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag A4 (schooljaar 2020 - 2021)</v>
@@ -1785,7 +1799,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>278</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag A5 (schooljaar 2021 - 2022)</v>
@@ -1990,7 +2006,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>279</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag A6 (schooljaar 2022 - 2023)</v>
@@ -2365,7 +2383,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2437,7 +2455,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>280</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag A4 (schooljaar 2019 - 2020)</v>
@@ -2514,7 +2534,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>376</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -2542,7 +2564,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>377</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>1</v>
@@ -2570,7 +2594,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>378</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>2</v>
@@ -2598,7 +2624,9 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>379</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
         <v>2</v>
@@ -2626,7 +2654,9 @@
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>380</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="G22" s="27">
         <v>3</v>
@@ -2656,7 +2686,9 @@
       <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>381</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="G23" s="27">
         <v>4</v>
@@ -2687,7 +2719,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>281</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag A5 (schooljaar 2020 - 2021)</v>
@@ -2894,7 +2928,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>282</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag A6 (schooljaar 2021 - 2022)</v>
@@ -3269,7 +3305,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3341,7 +3377,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>283</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag A4 (schooljaar 2018 - 2019)</v>
@@ -3553,7 +3591,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>284</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag A5 (schooljaar 2019 - 2020)</v>
@@ -3623,7 +3663,9 @@
       </c>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>382</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="G30" s="27">
         <v>1</v>
@@ -3649,7 +3691,9 @@
       <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>383</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="G31" s="27">
         <v>2</v>
@@ -3675,7 +3719,9 @@
       <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>384</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="G32" s="27">
         <v>3</v>
@@ -3770,7 +3816,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>285</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag A6 (schooljaar 2020 - 2021)</v>
@@ -4137,7 +4185,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5092,7 +5140,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5908,7 +5956,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6724,7 +6772,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7438,7 +7486,9 @@
       <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>359</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -7472,7 +7522,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>360</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>1</v>
@@ -7506,7 +7558,9 @@
       <c r="B8" s="2">
         <v>110</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>361</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>2</v>
@@ -7541,7 +7595,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2022</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>362</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>2</v>
@@ -7576,9 +7632,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445717593</v>
+      </c>
+      <c r="D10" s="2">
+        <v>363</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>3</v>
@@ -7615,7 +7673,9 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>364</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="G11" s="27">
         <v>4</v>
@@ -7662,7 +7722,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>273</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag H4 (schooljaar 2020 - 2021)</v>
@@ -7876,7 +7938,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>274</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag H5 (schooljaar 2021 - 2022)</v>
@@ -8456,7 +8520,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8528,7 +8592,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>275</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag H4 (schooljaar 2019 - 2020)</v>
@@ -8605,7 +8671,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>365</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -8633,7 +8701,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>366</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>1</v>
@@ -8661,7 +8731,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>367</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>1</v>
@@ -8689,7 +8761,9 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>368</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
         <v>0</v>
@@ -8713,7 +8787,9 @@
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>369</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="G22" s="27">
         <v>0</v>
@@ -8762,7 +8838,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>276</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag H5 (schooljaar 2020 - 2021)</v>
@@ -9334,7 +9412,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/WB PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/WB PTA en onderwijsprogramma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <workbookProtection lockRevision="false" lockStructure="true" lockWindows="false"/>
   <bookViews>
-    <workbookView activeTab="11" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="12" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="instellingen" sheetId="1" r:id="rId4"/>
@@ -13,13 +13,14 @@
     <sheet name="wensen" sheetId="3" r:id="rId6"/>
     <sheet name="M 2021" sheetId="4" r:id="rId7"/>
     <sheet name="M 2020" sheetId="5" r:id="rId8"/>
-    <sheet name="H 2021" sheetId="6" r:id="rId9"/>
-    <sheet name="H 2020" sheetId="7" r:id="rId10"/>
-    <sheet name="H 2019" sheetId="8" r:id="rId11"/>
-    <sheet name="A 2021" sheetId="9" r:id="rId12"/>
-    <sheet name="A 2020" sheetId="10" r:id="rId13"/>
-    <sheet name="A 2019" sheetId="11" r:id="rId14"/>
-    <sheet name="A 2018" sheetId="12" r:id="rId15"/>
+    <sheet name="M 2019" sheetId="6" r:id="rId9"/>
+    <sheet name="H 2021" sheetId="7" r:id="rId10"/>
+    <sheet name="H 2020" sheetId="8" r:id="rId11"/>
+    <sheet name="H 2019" sheetId="9" r:id="rId12"/>
+    <sheet name="A 2021" sheetId="10" r:id="rId13"/>
+    <sheet name="A 2020" sheetId="11" r:id="rId14"/>
+    <sheet name="A 2019" sheetId="12" r:id="rId15"/>
+    <sheet name="A 2018" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -251,6 +252,9 @@
     <t>WB</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
@@ -266,7 +270,13 @@
     <t>Hoofdstuk 5: Afstanden en hoeken. Hoofdstuk 7: Lijnen en afstanden</t>
   </si>
   <si>
+    <t>A1, A2, A3, C1, C2</t>
+  </si>
+  <si>
     <t>Hoofdstuk 3: Machtsfuncties. Hoofdstuk 4: Exponentiële functies</t>
+  </si>
+  <si>
+    <t>A1, A2, A3, B1, B2</t>
   </si>
   <si>
     <t>Hoofsdtuk 6: Afgeleide functies + Hoofdstuk 8: Periodieke functies</t>
@@ -278,7 +288,13 @@
     <t>Moderne Wiskunde 5 havo B, 11e editie Hoofdstuk 1: Logaritmische functies ; Hoofdstuk 2: Functies bewerken Vaardigheden, uitgedeelde stencils Details: zie studiewijzer</t>
   </si>
   <si>
+    <t>A1, A2, A3, rekenen</t>
+  </si>
+  <si>
     <t>Moderne Wiskunde 5 havo B, 11e editie Hoofdstuk 3: Goniometrische functies  Hoofdstuk 4: Differentiëren Vaardigheden, uitgedeelde stencils Details: zie studiewijzer</t>
+  </si>
+  <si>
+    <t>A1, A2, A3, D1, D2, D3, D4, rekenen</t>
   </si>
   <si>
     <t>Moderne Wiskunde 5 havo B, 11e editie Hoofdstuk 5: Cirkels  Hoofdstuk 6: Verbanden Vaardigheden, uitgedeelde stencils Details: zie studiewijzer</t>
@@ -314,6 +330,9 @@
     <t>Keuzeonderwerp</t>
   </si>
   <si>
+    <t>A1, A2, A3, F</t>
+  </si>
+  <si>
     <t xml:space="preserve">Moderne wiskunde 11e editie, wiskunde B, deel vwo 5 H3. Kettingregel. H4. Integreren. Vaardigheden </t>
   </si>
   <si>
@@ -323,6 +342,9 @@
     <t>Moderne wiskunde 11e editie, wiskunde B, deel vwo 5 H5. Cirkels. H7. Meetkunde: rekenen of beredeneren. Vaardigheden</t>
   </si>
   <si>
+    <t>A1, A2, A3, E1</t>
+  </si>
+  <si>
     <t>Moderne wiskunde 11e editie, wiskunde B, deel vwo 5 H6. Product-en quotiëntfuncties. H8. Goniometrische functies. Vaardigheden</t>
   </si>
   <si>
@@ -330,6 +352,9 @@
   </si>
   <si>
     <t>Moderne wiskunde 11e editie, wiskunde B, deel vwo 6 H3. Bewegingsvergelijkingen. H6. Afsluiting meetkunde. Vaardigheden</t>
+  </si>
+  <si>
+    <t>A1, A2, A3, E1, rekenen</t>
   </si>
   <si>
     <t>Moderne wiskunde 11e editie, wiskunde B, deel vwo 6 H4. Goniometrische functies. H5. Functies onderzoeken. Vaardigheden</t>
@@ -1261,12 +1286,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
+      <c r="B2" s="2">
+        <v>0</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
+        <v>verouderd PTA</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -1288,25 +1313,21 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>WB leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v> leerlaag 4 (schooljaar  - 1)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2">
-        <v>10</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -1348,35 +1369,25 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="2">
-        <v>370</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="I6" s="27">
-        <v>1</v>
-      </c>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27">
-        <v>50</v>
-      </c>
+      <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -1384,35 +1395,25 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>371</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>1</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="27">
-        <v>2</v>
-      </c>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>100</v>
-      </c>
+      <c r="L7" s="27"/>
       <c r="M7" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -1420,35 +1421,25 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2">
-        <v>112</v>
-      </c>
-      <c r="D8" s="2">
-        <v>372</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>2</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" s="27">
-        <v>3</v>
-      </c>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27">
-        <v>100</v>
-      </c>
+      <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -1458,34 +1449,26 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2023</v>
-      </c>
-      <c r="D9" s="2">
-        <v>373</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>3</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="I9" s="27">
-        <v>3</v>
-      </c>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27">
-        <v>100</v>
-      </c>
+      <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -1495,34 +1478,26 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
-      </c>
-      <c r="D10" s="2">
-        <v>374</v>
-      </c>
+        <v>44340.444074074</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" s="27">
-        <v>1</v>
-      </c>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27">
-        <v>50</v>
-      </c>
+      <c r="L10" s="27"/>
       <c r="M10" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
     </row>
@@ -1534,32 +1509,24 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2">
-        <v>375</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="G11" s="27">
-        <v>4</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" s="27">
-        <v>2</v>
-      </c>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27">
-        <v>100</v>
-      </c>
+      <c r="L11" s="27"/>
       <c r="M11" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N11" s="31"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P11" s="32"/>
     </row>
@@ -1578,17 +1545,15 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>0</v>
+        <v>-2020</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2">
-        <v>277</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -1603,11 +1568,9 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>81</v>
-      </c>
+        <v>2024</v>
+      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -1622,7 +1585,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>WB leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v> leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -1799,12 +1762,10 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2">
-        <v>278</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -1829,7 +1790,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>WB leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v> leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -2006,12 +1967,10 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2">
-        <v>279</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -2085,44 +2044,6 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
@@ -2186,7 +2107,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -2217,7 +2138,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>WB leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>WB leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -2269,26 +2190,34 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="D6" s="2">
+        <v>370</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="27">
+        <v>1</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>50</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>5</v>
+      <c r="O6" s="31">
+        <v>0</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -2297,26 +2226,34 @@
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>371</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>1</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>100</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="31"/>
-      <c r="O7" s="31" t="s">
-        <v>5</v>
+      <c r="O7" s="31">
+        <v>0</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -2325,26 +2262,34 @@
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>113</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="D8" s="2">
+        <v>372</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>2</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="27">
+        <v>3</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="27">
+        <v>100</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="31"/>
-      <c r="O8" s="31" t="s">
-        <v>5</v>
+      <c r="O8" s="31">
+        <v>0</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -2354,26 +2299,34 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2023</v>
+      </c>
+      <c r="D9" s="2">
+        <v>373</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="27">
+        <v>3</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>100</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="31"/>
-      <c r="O9" s="31" t="s">
-        <v>5</v>
+      <c r="O9" s="31">
+        <v>0</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -2383,26 +2336,34 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.444074074</v>
+      </c>
+      <c r="D10" s="2">
+        <v>374</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="27">
+        <v>1</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
+      <c r="L10" s="27">
+        <v>50</v>
+      </c>
       <c r="M10" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="31"/>
-      <c r="O10" s="31" t="s">
-        <v>5</v>
+      <c r="O10" s="31">
+        <v>0</v>
       </c>
       <c r="P10" s="32"/>
     </row>
@@ -2414,24 +2375,32 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>375</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="G11" s="27">
+        <v>4</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="27">
+        <v>2</v>
+      </c>
       <c r="J11" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
+      <c r="L11" s="27">
+        <v>100</v>
+      </c>
       <c r="M11" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N11" s="31"/>
-      <c r="O11" s="31" t="s">
-        <v>5</v>
+      <c r="O11" s="31">
+        <v>0</v>
       </c>
       <c r="P11" s="32"/>
     </row>
@@ -2450,17 +2419,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -2475,9 +2444,11 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
-      </c>
-      <c r="G14" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>84</v>
+      </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -2492,7 +2463,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>WB leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>WB leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -2534,184 +2505,134 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>376</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" s="27">
-        <v>2</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27">
-        <v>100</v>
-      </c>
+      <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>377</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>1</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="27">
-        <v>1</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>378</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>2</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" s="27">
-        <v>2</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27">
-        <v>100</v>
-      </c>
+      <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>379</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>2</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="27">
-        <v>1</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K21" s="30"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2">
-        <v>380</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="27">
-        <v>3</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="27">
-        <v>2</v>
-      </c>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K22" s="30"/>
-      <c r="L22" s="27">
-        <v>100</v>
-      </c>
+      <c r="L22" s="27"/>
       <c r="M22" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2">
-        <v>381</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="G23" s="27">
-        <v>4</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="I23" s="27">
-        <v>2</v>
-      </c>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
       <c r="J23" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K23" s="30"/>
-      <c r="L23" s="27">
-        <v>100</v>
-      </c>
+      <c r="L23" s="27"/>
       <c r="M23" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N23" s="31"/>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P23" s="32"/>
     </row>
@@ -2720,11 +2641,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -2734,9 +2655,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34" t="s">
-        <v>81</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -2751,7 +2670,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>WB leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>WB leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -2929,11 +2848,11 @@
         <v>28</v>
       </c>
       <c r="D37" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -3066,6 +2985,934 @@
   </sheetPr>
   <dimension ref="A1:Q38"/>
   <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>WB leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>113</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444074074</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>280</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>WB leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2">
+        <v>376</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="27">
+        <v>2</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27">
+        <v>100</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2">
+        <v>377</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27">
+        <v>1</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="27">
+        <v>1</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>1</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2">
+        <v>378</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27">
+        <v>2</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="27">
+        <v>2</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="32"/>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2">
+        <v>379</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27">
+        <v>2</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="27">
+        <v>1</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="31">
+        <v>2</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2">
+        <v>380</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27">
+        <v>3</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="27">
+        <v>2</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27">
+        <v>100</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="31">
+        <v>1</v>
+      </c>
+      <c r="O22" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2">
+        <v>381</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27">
+        <v>4</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="27">
+        <v>2</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27">
+        <v>100</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>281</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>WB leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2">
+        <v>282</v>
+      </c>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
@@ -3191,7 +4038,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3305,7 +4152,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3671,7 +4518,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
@@ -3686,9 +4533,11 @@
         <v>4</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P30" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="32" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2">
@@ -3699,7 +4548,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
@@ -3714,9 +4563,11 @@
         <v>4</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P31" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P31" s="32" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2">
@@ -3727,7 +4578,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
@@ -3742,9 +4593,11 @@
         <v>4</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P32" s="32" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
@@ -3832,7 +4685,7 @@
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
       <c r="G38" s="34" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
@@ -4185,7 +5038,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5140,7 +5993,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5956,7 +6809,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6580,12 +7433,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige M5 (cohort 2019 - 2020)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -6607,6 +7460,871 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>WB leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>109</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2020</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444074074</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>271</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>WB leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="32"/>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="32"/>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="32"/>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>272</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>WB leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="11">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>verouderd PTA</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -6772,7 +8490,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7352,928 +9070,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:Q38"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
-    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
-    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
-    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
-    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
-    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
-    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
-    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
-    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
-    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
-    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" customHeight="1" ht="48">
-      <c r="A2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="35" t="str">
-        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" customHeight="1" ht="30">
-      <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="G4" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>WB leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" customHeight="1" ht="34.5">
-      <c r="A5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2">
-        <v>10</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" customHeight="1" ht="72">
-      <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2">
-        <v>359</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="27">
-        <v>2</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="27">
-        <v>50</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="32"/>
-    </row>
-    <row r="7" spans="1:17" customHeight="1" ht="72">
-      <c r="A7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>360</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>1</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="27">
-        <v>2</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>50</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="32"/>
-    </row>
-    <row r="8" spans="1:17" customHeight="1" ht="72">
-      <c r="A8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2">
-        <v>110</v>
-      </c>
-      <c r="D8" s="2">
-        <v>361</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>2</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="27">
-        <v>1</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="27">
-        <v>50</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="1:17" customHeight="1" ht="72">
-      <c r="A9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="4">
-        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2">
-        <v>362</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>2</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="27">
-        <v>3</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="27">
-        <v>100</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="31">
-        <v>2</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="32"/>
-    </row>
-    <row r="10" spans="1:17" customHeight="1" ht="72">
-      <c r="A10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="6">
-        <f>NOW()</f>
-        <v>44336.445717593</v>
-      </c>
-      <c r="D10" s="2">
-        <v>363</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>3</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="27">
-        <v>3</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="27">
-        <v>100</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="31">
-        <v>2</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="32"/>
-    </row>
-    <row r="11" spans="1:17" customHeight="1" ht="72">
-      <c r="A11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="4">
-        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
-        <v>2020</v>
-      </c>
-      <c r="D11" s="2">
-        <v>364</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="G11" s="27">
-        <v>4</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="27">
-        <v>3</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="27">
-        <v>100</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="32"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f>CONCATENATE(B11," - ",B11+1)</f>
-        <v>2020 - 2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4">
-        <f>B7-B11</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2">
-        <v>273</v>
-      </c>
-      <c r="G13" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-    </row>
-    <row r="14" spans="1:17" customHeight="1" ht="72">
-      <c r="A14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="7">
-        <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="G16" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>WB leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
-    </row>
-    <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
-    </row>
-    <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
-    </row>
-    <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="32"/>
-    </row>
-    <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="32"/>
-    </row>
-    <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="32"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="2">
-        <v>274</v>
-      </c>
-      <c r="G25" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-    </row>
-    <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-    </row>
-    <row r="28" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="G28" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>WB leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="32"/>
-    </row>
-    <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="32"/>
-    </row>
-    <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="G32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="32"/>
-    </row>
-    <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="G33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="32"/>
-    </row>
-    <row r="34" spans="1:17" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="G34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="32"/>
-    </row>
-    <row r="35" spans="1:17" customHeight="1" ht="72">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="G35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="32"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="C37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="G37" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-    </row>
-    <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G26:M26"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J6:J11">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISBLANK($J6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J23">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISBLANK($J18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J35">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>ISBLANK($J30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M11">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>ISBLANK($M6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M23">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>ISBLANK($M18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30:M35">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>ISBLANK($M30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O11">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>ISBLANK($O6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O23">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>ISBLANK($O18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O30:O35">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>ISBLANK($O30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
@@ -8323,7 +9119,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
+        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -8354,7 +9150,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>WB leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>WB leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -8406,22 +9202,30 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="D6" s="2">
+        <v>359</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="27">
+        <v>2</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>50</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
@@ -8434,22 +9238,30 @@
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>360</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>1</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>50</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
@@ -8462,22 +9274,30 @@
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>111</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="D8" s="2">
+        <v>361</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>2</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="27">
+        <v>1</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="27">
+        <v>50</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
@@ -8491,28 +9311,40 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2021</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2">
+        <v>362</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>2</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="27">
+        <v>3</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>100</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="31">
+        <v>2</v>
+      </c>
       <c r="O9" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -8520,28 +9352,40 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.444074074</v>
+      </c>
+      <c r="D10" s="2">
+        <v>363</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>3</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="27">
+        <v>3</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
+      <c r="L10" s="27">
+        <v>100</v>
+      </c>
       <c r="M10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="31">
+        <v>2</v>
+      </c>
       <c r="O10" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -8551,20 +9395,28 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>364</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="G11" s="27">
+        <v>4</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="27">
+        <v>3</v>
+      </c>
       <c r="J11" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
+      <c r="L11" s="27">
+        <v>100</v>
+      </c>
       <c r="M11" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N11" s="31"/>
       <c r="O11" s="31" t="s">
@@ -8587,17 +9439,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -8612,9 +9464,11 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
-      </c>
-      <c r="G14" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>84</v>
+      </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -8629,7 +9483,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>WB leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>WB leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -8671,144 +9525,112 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>365</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>82</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27">
-        <v>100</v>
-      </c>
+      <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="31">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>366</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>1</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>83</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>100</v>
-      </c>
+      <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="31">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>367</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>1</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27">
-        <v>100</v>
-      </c>
+      <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="31">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>368</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>0</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>85</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="29">
-        <v>0</v>
+      <c r="J21" s="29" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="30"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2">
-        <v>369</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="27">
-        <v>0</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>85</v>
-      </c>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="29">
-        <v>0</v>
+      <c r="J22" s="29" t="s">
+        <v>5</v>
       </c>
       <c r="K22" s="30"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N22" s="31"/>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P22" s="32"/>
     </row>
@@ -8839,11 +9661,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -8853,9 +9675,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34" t="s">
-        <v>81</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -8870,7 +9690,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>WB leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>WB leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9050,7 +9870,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9220,12 +10040,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -9247,21 +10067,25 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v> leerlaag 4 (schooljaar  - 1)</v>
+        <v>WB leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -9303,7 +10127,9 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="27" t="s">
@@ -9329,7 +10155,9 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="27" t="s">
@@ -9355,7 +10183,9 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>111</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="27" t="s">
@@ -9383,7 +10213,7 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>1</v>
+        <v>2021</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -9412,7 +10242,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9479,15 +10309,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-2020</v>
+        <v>-1</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>275</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -9502,7 +10334,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>2024</v>
+        <v>5</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -9519,7 +10351,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v> leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>WB leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -9561,86 +10393,120 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>365</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
+      <c r="L18" s="27">
+        <v>100</v>
+      </c>
       <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>3</v>
+      </c>
       <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>366</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
+      <c r="G19" s="27">
+        <v>1</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>87</v>
+      </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
+      <c r="L19" s="27">
+        <v>100</v>
+      </c>
       <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>3</v>
+      </c>
       <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>367</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
+      <c r="G20" s="27">
+        <v>1</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>89</v>
+      </c>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
       <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>3</v>
+      </c>
       <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>368</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
+      <c r="G21" s="27">
+        <v>0</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>90</v>
+      </c>
       <c r="I21" s="27"/>
-      <c r="J21" s="29" t="s">
-        <v>5</v>
+      <c r="J21" s="29">
+        <v>0</v>
       </c>
       <c r="K21" s="30"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
@@ -9649,20 +10515,24 @@
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>369</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
+      <c r="G22" s="27">
+        <v>0</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>90</v>
+      </c>
       <c r="I22" s="27"/>
-      <c r="J22" s="29" t="s">
-        <v>5</v>
+      <c r="J22" s="29">
+        <v>0</v>
       </c>
       <c r="K22" s="30"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N22" s="31"/>
       <c r="O22" s="31" t="s">
@@ -9696,10 +10566,12 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>276</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -9709,7 +10581,9 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
+      <c r="G26" s="34" t="s">
+        <v>84</v>
+      </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -9724,7 +10598,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v> leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>WB leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9904,7 +10778,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WB leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9978,6 +10852,44 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>

--- a/public/cohort/fileExcel/xlsxUIT/WB PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/WB PTA en onderwijsprogramma.xlsx
@@ -1655,7 +1655,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808923611</v>
+        <v>44341.37630787</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2329,7 +2329,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808923611</v>
+        <v>44341.37630787</v>
       </c>
       <c r="D10" s="2">
         <v>363</v>
@@ -3465,7 +3465,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808923611</v>
+        <v>44341.37630787</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4583,7 +4583,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808923611</v>
+        <v>44341.37630787</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5663,7 +5663,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -6099,7 +6099,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808923611</v>
+        <v>44341.37630787</v>
       </c>
       <c r="D10" s="2">
         <v>374</v>
@@ -6793,7 +6793,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808923611</v>
+        <v>44341.37630787</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7931,7 +7931,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -8335,7 +8335,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808923611</v>
+        <v>44341.37630787</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9037,7 +9037,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>

--- a/public/cohort/fileExcel/xlsxUIT/WB PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/WB PTA en onderwijsprogramma.xlsx
@@ -825,21 +825,45 @@
     <t>H</t>
   </si>
   <si>
+    <t>Hoofdstuk 1: Vergelijkingen (paragraaf 1.1 t/m 1.3) + Hoofdstuk 2: Functies en grafieken (paragraaf 2.1 t/m 2.5)</t>
+  </si>
+  <si>
     <t>startJaar</t>
   </si>
   <si>
+    <t>Hoofdstuk 1: Vergelijkingen (paragraaf 1.4 t/m 1.7) + Hoofdstuk 2: Functies en grafieken (paragraaf 2.6 en 2.7). Stof van paragraaf 1.1 t/m 1.3 en 2.1 t/m 2.5 wordt bekend verondersteld.</t>
+  </si>
+  <si>
     <t>cid</t>
   </si>
   <si>
+    <t>Hoofdstuk 7: Lijnen en afstanden + Paragraaf 5.4: Afstanden in een rooster</t>
+  </si>
+  <si>
     <t>eindJaar</t>
   </si>
   <si>
+    <t>Hoofdstuk 5: Afstanden en hoeken. Hoofdstuk 7: Lijnen en afstanden</t>
+  </si>
+  <si>
+    <t>A1, A2, A3, C1, C2</t>
+  </si>
+  <si>
     <t>vandaag</t>
   </si>
   <si>
+    <t>Hoofdstuk 3: Machtsfuncties. Hoofdstuk 4: Exponentiële functies</t>
+  </si>
+  <si>
+    <t>A1, A2, A3, B1, B2</t>
+  </si>
+  <si>
     <t>huidigStartjaar</t>
   </si>
   <si>
+    <t>Hoofsdtuk 6: Afgeleide functies + Hoofdstuk 8: Periodieke functies</t>
+  </si>
+  <si>
     <t>huidigSchooljaar</t>
   </si>
   <si>
@@ -850,30 +874,6 @@
   </si>
   <si>
     <t>mavo?</t>
-  </si>
-  <si>
-    <t>Hoofdstuk 1: Vergelijkingen (paragraaf 1.1 t/m 1.3) + Hoofdstuk 2: Functies en grafieken (paragraaf 2.1 t/m 2.5)</t>
-  </si>
-  <si>
-    <t>Hoofdstuk 1: Vergelijkingen (paragraaf 1.4 t/m 1.7) + Hoofdstuk 2: Functies en grafieken (paragraaf 2.6 en 2.7). Stof van paragraaf 1.1 t/m 1.3 en 2.1 t/m 2.5 wordt bekend verondersteld.</t>
-  </si>
-  <si>
-    <t>Hoofdstuk 7: Lijnen en afstanden + Paragraaf 5.4: Afstanden in een rooster</t>
-  </si>
-  <si>
-    <t>Hoofdstuk 5: Afstanden en hoeken. Hoofdstuk 7: Lijnen en afstanden</t>
-  </si>
-  <si>
-    <t>A1, A2, A3, C1, C2</t>
-  </si>
-  <si>
-    <t>Hoofdstuk 3: Machtsfuncties. Hoofdstuk 4: Exponentiële functies</t>
-  </si>
-  <si>
-    <t>A1, A2, A3, B1, B2</t>
-  </si>
-  <si>
-    <t>Hoofsdtuk 6: Afgeleide functies + Hoofdstuk 8: Periodieke functies</t>
   </si>
   <si>
     <t>Bij de tt vervangt de grafische rekenmachine de gewone rekenmachine als toegestaan hulpmiddel. Alle aantekeningen, stencils en extra opgaven die gegeven zijn in de les behoren ook tot de stof voor het SE.</t>
@@ -2306,21 +2306,29 @@
       <c r="B6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>771</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="23">
+        <v>2</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="23">
+        <v>50</v>
+      </c>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
       <c r="O6" s="27" t="s">
@@ -2331,26 +2339,34 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>772</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="23">
+        <v>50</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="27"/>
       <c r="O7" s="27" t="s">
@@ -2361,26 +2377,34 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>209</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>773</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>2</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="23">
+        <v>1</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="23">
+        <v>50</v>
+      </c>
       <c r="M8" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="27" t="s">
@@ -2391,89 +2415,121 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>774</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>2</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="23">
+        <v>3</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="23">
+        <v>100</v>
+      </c>
       <c r="M9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="27">
+        <v>2</v>
+      </c>
       <c r="O9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>67</v>
+      </c>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382326389</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.629548611</v>
+      </c>
+      <c r="D10" s="2">
+        <v>775</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>3</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="23">
+        <v>3</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="26"/>
-      <c r="L10" s="23"/>
+      <c r="L10" s="23">
+        <v>100</v>
+      </c>
       <c r="M10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="27">
+        <v>2</v>
+      </c>
       <c r="O10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>776</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
+      <c r="G11" s="23">
+        <v>4</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="23">
+        <v>3</v>
+      </c>
       <c r="J11" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="26"/>
-      <c r="L11" s="23"/>
+      <c r="L11" s="23">
+        <v>100</v>
+      </c>
       <c r="M11" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N11" s="27"/>
       <c r="O11" s="27" t="s">
@@ -2484,7 +2540,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -2505,7 +2561,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -2535,7 +2591,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -2556,7 +2612,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -3393,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I6" s="43">
         <v>2</v>
@@ -3417,7 +3473,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -3431,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I7" s="43">
         <v>2</v>
@@ -3455,7 +3511,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>110</v>
@@ -3469,7 +3525,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I8" s="43">
         <v>1</v>
@@ -3493,7 +3549,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -3508,7 +3564,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I9" s="43">
         <v>3</v>
@@ -3530,17 +3586,17 @@
         <v>8</v>
       </c>
       <c r="P9" s="52" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382326389</v>
+        <v>44342.629548611</v>
       </c>
       <c r="D10" s="2">
         <v>363</v>
@@ -3551,7 +3607,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I10" s="43">
         <v>3</v>
@@ -3573,13 +3629,13 @@
         <v>8</v>
       </c>
       <c r="P10" s="52" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -3594,7 +3650,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="47" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I11" s="43">
         <v>3</v>
@@ -3618,7 +3674,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -3639,7 +3695,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3669,7 +3725,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -3692,7 +3748,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -3773,93 +3829,127 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>766</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>78</v>
+      </c>
       <c r="I18" s="23"/>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="23">
+        <v>100</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>3</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>79</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>767</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
+      <c r="G19" s="23">
+        <v>1</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>80</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>100</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>3</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>81</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>768</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
+      <c r="G20" s="23">
+        <v>1</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>82</v>
+      </c>
       <c r="I20" s="23"/>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>3</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>79</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>769</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
+      <c r="G21" s="23">
+        <v>0</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>83</v>
+      </c>
       <c r="I21" s="23"/>
-      <c r="J21" s="25" t="s">
-        <v>5</v>
+      <c r="J21" s="25">
+        <v>0</v>
       </c>
       <c r="K21" s="26"/>
       <c r="L21" s="23"/>
       <c r="M21" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N21" s="27"/>
       <c r="O21" s="27" t="s">
@@ -3869,21 +3959,25 @@
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>770</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="24"/>
+      <c r="G22" s="23">
+        <v>0</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>83</v>
+      </c>
       <c r="I22" s="23"/>
-      <c r="J22" s="25" t="s">
-        <v>5</v>
+      <c r="J22" s="25">
+        <v>0</v>
       </c>
       <c r="K22" s="26"/>
       <c r="L22" s="23"/>
       <c r="M22" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N22" s="27"/>
       <c r="O22" s="27" t="s">
@@ -4545,7 +4639,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -4575,7 +4669,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>111</v>
@@ -4605,7 +4699,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -4636,11 +4730,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382326389</v>
+        <v>44342.629548611</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4667,7 +4761,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -4698,7 +4792,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -4719,7 +4813,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -4749,7 +4843,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -4770,7 +4864,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5638,185 +5732,233 @@
       <c r="B6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>786</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="23">
+        <v>50</v>
+      </c>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
-      <c r="O6" s="27" t="s">
-        <v>5</v>
+      <c r="O6" s="27">
+        <v>0</v>
       </c>
       <c r="P6" s="28"/>
       <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>787</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="23">
+        <v>100</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="27"/>
-      <c r="O7" s="27" t="s">
-        <v>5</v>
+      <c r="O7" s="27">
+        <v>0</v>
       </c>
       <c r="P7" s="28"/>
       <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>210</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>788</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>2</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="23">
+        <v>3</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="23">
+        <v>100</v>
+      </c>
       <c r="M8" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="27"/>
-      <c r="O8" s="27" t="s">
-        <v>5</v>
+      <c r="O8" s="27">
+        <v>0</v>
       </c>
       <c r="P8" s="28"/>
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2024</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>789</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>3</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="23">
+        <v>3</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="23">
+        <v>100</v>
+      </c>
       <c r="M9" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="27"/>
-      <c r="O9" s="27" t="s">
-        <v>5</v>
+      <c r="O9" s="27">
+        <v>0</v>
       </c>
       <c r="P9" s="28"/>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382326389</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.629548611</v>
+      </c>
+      <c r="D10" s="2">
+        <v>790</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>4</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="23">
+        <v>1</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="26"/>
-      <c r="L10" s="23"/>
+      <c r="L10" s="23">
+        <v>50</v>
+      </c>
       <c r="M10" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="27"/>
-      <c r="O10" s="27" t="s">
-        <v>5</v>
+      <c r="O10" s="27">
+        <v>0</v>
       </c>
       <c r="P10" s="28"/>
       <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>791</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
+      <c r="G11" s="23">
+        <v>4</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="23">
+        <v>2</v>
+      </c>
       <c r="J11" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="26"/>
-      <c r="L11" s="23"/>
+      <c r="L11" s="23">
+        <v>100</v>
+      </c>
       <c r="M11" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N11" s="27"/>
-      <c r="O11" s="27" t="s">
-        <v>5</v>
+      <c r="O11" s="27">
+        <v>0</v>
       </c>
       <c r="P11" s="28"/>
       <c r="Q11" s="37"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5837,7 +5979,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5867,7 +6009,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -5888,7 +6030,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -6751,7 +6893,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -6789,7 +6931,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>112</v>
@@ -6827,7 +6969,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -6866,11 +7008,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382326389</v>
+        <v>44342.629548611</v>
       </c>
       <c r="D10" s="2">
         <v>374</v>
@@ -6905,7 +7047,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -6944,7 +7086,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -6965,7 +7107,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -6995,7 +7137,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7018,7 +7160,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7099,21 +7241,29 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>780</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="23">
+        <v>2</v>
+      </c>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="23">
+        <v>100</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N18" s="27"/>
       <c r="O18" s="27" t="s">
@@ -7123,45 +7273,63 @@
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>781</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="23"/>
+      <c r="G19" s="23">
+        <v>1</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="23">
+        <v>1</v>
+      </c>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K19" s="26"/>
       <c r="L19" s="23"/>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>1</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>93</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>782</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="23"/>
+      <c r="G20" s="23">
+        <v>2</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="23">
+        <v>2</v>
+      </c>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N20" s="27"/>
       <c r="O20" s="27" t="s">
@@ -7171,69 +7339,99 @@
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>783</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="23"/>
+      <c r="G21" s="23">
+        <v>2</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21" s="23">
+        <v>1</v>
+      </c>
       <c r="J21" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K21" s="26"/>
       <c r="L21" s="23"/>
       <c r="M21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="27">
+        <v>2</v>
+      </c>
       <c r="O21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>93</v>
+      </c>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>784</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="23"/>
+      <c r="G22" s="23">
+        <v>3</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" s="23">
+        <v>2</v>
+      </c>
       <c r="J22" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K22" s="26"/>
-      <c r="L22" s="23"/>
+      <c r="L22" s="23">
+        <v>100</v>
+      </c>
       <c r="M22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N22" s="27">
+        <v>1</v>
+      </c>
       <c r="O22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>97</v>
+      </c>
       <c r="Q22" s="37"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>785</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="37"/>
-      <c r="G23" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="23"/>
+      <c r="G23" s="23">
+        <v>4</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="23">
+        <v>2</v>
+      </c>
       <c r="J23" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K23" s="26"/>
-      <c r="L23" s="23"/>
+      <c r="L23" s="23">
+        <v>100</v>
+      </c>
       <c r="M23" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N23" s="27"/>
       <c r="O23" s="27" t="s">
@@ -7873,7 +8071,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7903,7 +8101,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>113</v>
@@ -7933,7 +8131,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7964,11 +8162,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382326389</v>
+        <v>44342.629548611</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7995,7 +8193,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -8026,7 +8224,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -8047,7 +8245,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -8077,7 +8275,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -8098,7 +8296,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -8507,75 +8705,99 @@
       <c r="Q29" s="37"/>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>777</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="37"/>
-      <c r="G30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="24"/>
+      <c r="G30" s="23">
+        <v>1</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>99</v>
+      </c>
       <c r="I30" s="23"/>
       <c r="J30" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K30" s="26"/>
       <c r="L30" s="23"/>
       <c r="M30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N30" s="27">
+        <v>4</v>
+      </c>
       <c r="O30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>79</v>
+      </c>
       <c r="Q30" s="37"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>778</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="37"/>
-      <c r="G31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="24"/>
+      <c r="G31" s="23">
+        <v>2</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>100</v>
+      </c>
       <c r="I31" s="23"/>
       <c r="J31" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K31" s="26"/>
       <c r="L31" s="23"/>
       <c r="M31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N31" s="27">
+        <v>4</v>
+      </c>
       <c r="O31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>101</v>
+      </c>
       <c r="Q31" s="37"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>779</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="37"/>
-      <c r="G32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="24"/>
+      <c r="G32" s="23">
+        <v>3</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>102</v>
+      </c>
       <c r="I32" s="23"/>
       <c r="J32" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K32" s="26"/>
       <c r="L32" s="23"/>
       <c r="M32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N32" s="27">
+        <v>4</v>
+      </c>
       <c r="O32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>79</v>
+      </c>
       <c r="Q32" s="37"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
@@ -9011,7 +9233,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -9041,7 +9263,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>114</v>
@@ -9071,7 +9293,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9102,11 +9324,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382326389</v>
+        <v>44342.629548611</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9133,7 +9355,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9164,7 +9386,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9185,7 +9407,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9215,7 +9437,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -9236,7 +9458,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>

--- a/public/cohort/fileExcel/xlsxUIT/WB PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/WB PTA en onderwijsprogramma.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -886,6 +886,9 @@
   </si>
   <si>
     <t>Hoofdstuk 1: Vergelijkingen (paragraaf 1.1 t/m 1.4) + Hoofdstuk 2: Functies en grafieken (paragraaf 2.1 t/m 2.3)</t>
+  </si>
+  <si>
+    <t>kies...</t>
   </si>
   <si>
     <t>startJaar</t>
@@ -2441,7 +2444,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -2507,7 +2510,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -2520,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -2537,7 +2540,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -2603,7 +2606,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>209</v>
@@ -2616,7 +2619,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -2633,7 +2636,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -2699,7 +2702,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -2713,7 +2716,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -2732,10 +2735,10 @@
         <v>2</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -2800,11 +2803,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541006944</v>
+        <v>44378.451238426</v>
       </c>
       <c r="D10" s="2">
         <v>775</v>
@@ -2814,7 +2817,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" s="45">
         <v>3</v>
@@ -2833,10 +2836,10 @@
         <v>2</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -2901,7 +2904,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2915,7 +2918,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11" s="45">
         <v>3</v>
@@ -2932,7 +2935,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -2998,7 +3001,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -3021,7 +3024,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3060,7 +3063,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -3090,7 +3093,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4716,7 +4719,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -4733,7 +4736,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -4799,7 +4802,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -4812,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -4829,7 +4832,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -4895,7 +4898,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>110</v>
@@ -4908,7 +4911,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -4925,7 +4928,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -4991,7 +4994,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -5005,7 +5008,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -5024,10 +5027,10 @@
         <v>2</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -5092,11 +5095,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541006944</v>
+        <v>44378.451238426</v>
       </c>
       <c r="D10" s="2">
         <v>363</v>
@@ -5106,7 +5109,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" s="45">
         <v>3</v>
@@ -5125,10 +5128,10 @@
         <v>2</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -5193,7 +5196,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5207,7 +5210,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11" s="45">
         <v>3</v>
@@ -5224,7 +5227,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -5290,7 +5293,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5313,7 +5316,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5352,14 +5355,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -5384,7 +5387,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5490,7 +5493,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -5507,10 +5510,10 @@
         <v>4</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -5582,7 +5585,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -5599,10 +5602,10 @@
         <v>6</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -5674,7 +5677,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -5691,10 +5694,10 @@
         <v>4</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -6053,7 +6056,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -7117,7 +7120,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7205,7 +7208,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>111</v>
@@ -7293,7 +7296,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7382,11 +7385,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541006944</v>
+        <v>44378.451238426</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7471,7 +7474,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7560,7 +7563,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7583,7 +7586,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -7622,7 +7625,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7652,7 +7655,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7758,7 +7761,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -7775,10 +7778,10 @@
         <v>3</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -7850,7 +7853,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -7867,10 +7870,10 @@
         <v>3</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -7942,7 +7945,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -7959,10 +7962,10 @@
         <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -8321,7 +8324,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -9300,7 +9303,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2">
         <v>786</v>
@@ -9310,7 +9313,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -9327,7 +9330,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -9393,7 +9396,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -9406,7 +9409,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -9423,7 +9426,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -9489,7 +9492,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>210</v>
@@ -9502,7 +9505,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I8" s="45">
         <v>3</v>
@@ -9519,7 +9522,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -9585,7 +9588,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9599,7 +9602,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -9616,7 +9619,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -9682,11 +9685,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541006944</v>
+        <v>44378.451238426</v>
       </c>
       <c r="D10" s="2">
         <v>790</v>
@@ -9696,7 +9699,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I10" s="45">
         <v>1</v>
@@ -9713,7 +9716,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -9779,7 +9782,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9793,7 +9796,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -9810,7 +9813,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -9876,7 +9879,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9899,7 +9902,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9938,14 +9941,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -9970,7 +9973,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -11588,7 +11591,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2">
         <v>370</v>
@@ -11598,7 +11601,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -11614,8 +11617,8 @@
         <v>11</v>
       </c>
       <c r="N6" s="46"/>
-      <c r="O6" s="31">
-        <v>0</v>
+      <c r="O6" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11681,7 +11684,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -11694,7 +11697,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -11710,8 +11713,8 @@
         <v>11</v>
       </c>
       <c r="N7" s="46"/>
-      <c r="O7" s="31">
-        <v>0</v>
+      <c r="O7" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11777,7 +11780,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>112</v>
@@ -11790,7 +11793,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I8" s="45">
         <v>3</v>
@@ -11806,8 +11809,8 @@
         <v>11</v>
       </c>
       <c r="N8" s="46"/>
-      <c r="O8" s="31">
-        <v>0</v>
+      <c r="O8" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -11873,7 +11876,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -11887,7 +11890,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -11904,7 +11907,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11970,11 +11973,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541006944</v>
+        <v>44378.451238426</v>
       </c>
       <c r="D10" s="2">
         <v>374</v>
@@ -11984,7 +11987,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I10" s="45">
         <v>1</v>
@@ -12000,8 +12003,8 @@
         <v>11</v>
       </c>
       <c r="N10" s="46"/>
-      <c r="O10" s="31">
-        <v>0</v>
+      <c r="O10" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -12067,7 +12070,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -12081,7 +12084,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -12097,8 +12100,8 @@
         <v>11</v>
       </c>
       <c r="N11" s="46"/>
-      <c r="O11" s="31">
-        <v>0</v>
+      <c r="O11" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -12164,7 +12167,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -12187,7 +12190,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -12226,14 +12229,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -12258,7 +12261,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -12364,7 +12367,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I18" s="45">
         <v>3</v>
@@ -12381,7 +12384,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -12454,7 +12457,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I19" s="45">
         <v>1</v>
@@ -12471,10 +12474,10 @@
         <v>1</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -12546,7 +12549,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I20" s="45">
         <v>3</v>
@@ -12563,7 +12566,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -12636,7 +12639,7 @@
         <v>2</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I21" s="45">
         <v>1</v>
@@ -12653,10 +12656,10 @@
         <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -12728,7 +12731,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I22" s="45">
         <v>3</v>
@@ -12747,10 +12750,10 @@
         <v>2</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -12822,7 +12825,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I23" s="45">
         <v>3</v>
@@ -12839,7 +12842,7 @@
       </c>
       <c r="N23" s="46"/>
       <c r="O23" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P23" s="32"/>
       <c r="R23" s="7">
@@ -12953,7 +12956,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -13934,7 +13937,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -14019,7 +14022,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -14107,7 +14110,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>113</v>
@@ -14195,7 +14198,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -14284,11 +14287,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541018519</v>
+        <v>44378.45125</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14373,7 +14376,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -14462,7 +14465,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -14485,7 +14488,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -14524,7 +14527,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -14554,7 +14557,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -14660,7 +14663,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -14677,7 +14680,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -14750,7 +14753,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I19" s="45">
         <v>1</v>
@@ -14767,10 +14770,10 @@
         <v>1</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -14842,7 +14845,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -14859,7 +14862,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -14932,10 +14935,10 @@
         <v>2</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I21" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" s="29" t="s">
         <v>19</v>
@@ -14946,13 +14949,13 @@
         <v>8</v>
       </c>
       <c r="N21" s="46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -15024,10 +15027,10 @@
         <v>3</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I22" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" s="29" t="s">
         <v>7</v>
@@ -15040,13 +15043,13 @@
         <v>8</v>
       </c>
       <c r="N22" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -15118,7 +15121,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I23" s="45">
         <v>2</v>
@@ -15135,7 +15138,7 @@
       </c>
       <c r="N23" s="46"/>
       <c r="O23" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P23" s="32"/>
       <c r="R23" s="7">
@@ -15249,7 +15252,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -15373,7 +15376,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -15385,13 +15388,13 @@
         <v>8</v>
       </c>
       <c r="N30" s="46">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -15463,7 +15466,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -15475,13 +15478,13 @@
         <v>8</v>
       </c>
       <c r="N31" s="46">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -15553,7 +15556,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -15565,13 +15568,13 @@
         <v>8</v>
       </c>
       <c r="N32" s="46">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -15900,7 +15903,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
@@ -16256,7 +16259,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16341,7 +16344,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -16429,7 +16432,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>114</v>
@@ -16517,7 +16520,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -16606,11 +16609,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541018519</v>
+        <v>44378.45125</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16695,7 +16698,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -16784,7 +16787,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -16807,7 +16810,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -16846,7 +16849,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -16876,7 +16879,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -17637,7 +17640,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -17652,10 +17655,10 @@
         <v>4</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -17727,7 +17730,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -17742,10 +17745,10 @@
         <v>4</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -17817,7 +17820,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -17832,10 +17835,10 @@
         <v>4</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -18164,7 +18167,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
